--- a/performanceTracking.xlsx
+++ b/performanceTracking.xlsx
@@ -8,13 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahcarino/code/assignment-three-turning-photos-into-cartoons-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AEAB0DE-8BD2-6E4F-B37C-BBE784BD9830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE6CF6C-FFA8-F64B-BA7F-B0A311A73115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16840" xr2:uid="{19B31A1C-EFD5-9E4F-BB73-3B339F3261D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$45</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$46:$B$55</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$45</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$46:$C$55</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$45</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$46:$D$55</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$45</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$46:$A$55</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$45</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$46:$A$55</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$45</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$46:$B$55</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$C$45</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$C$46:$C$55</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$D$45</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$D$46:$D$55</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>COMPX553 Assignment 3: Cartoonify Photos</t>
   </si>
@@ -48,6 +66,24 @@
   </si>
   <si>
     <t>Section 3: GPU Implementation</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Java Optimisation</t>
+  </si>
+  <si>
+    <t>GPU Implementation</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>The three versions of the GelAnim Cartoonify application was run on the img_bucket.png 10 times to ensure accounting for edge cases.</t>
+  </si>
+  <si>
+    <t>All three versions ran with the same parameters, with debugging turned on.</t>
   </si>
 </sst>
 </file>
@@ -111,12 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,6 +169,4009 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Original Program Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5329999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A45-9D47-B15D-B76808334711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="619533936"/>
+        <c:axId val="619552224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="619533936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619552224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="619552224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619533936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Java Optimisation Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$19:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1070000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D07C-064E-9662-4683801040C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2047271392"/>
+        <c:axId val="1149118848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2047271392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1149118848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1149118848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2047271392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>GPU Implementation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$31:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.624</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F140-B144-9549-7A51A07179AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2047137024"/>
+        <c:axId val="619654880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2047137024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619654880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="619654880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2047137024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Comparison of Three Versions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$46:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$46:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5329999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD41-8243-AED1-20195823D8B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java Optimisation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$46:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$46:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1070000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD41-8243-AED1-20195823D8B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU Implementation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$46:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$46:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.624</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AD41-8243-AED1-20195823D8B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2118584176"/>
+        <c:axId val="2119693968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2118584176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2119693968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2119693968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2118584176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E06E4E3B-0999-080D-5750-26993721130D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB0953F-B22A-4B7A-E5C4-0AC4BAF40DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC0FC8E-FDA2-8BA1-1A9B-7001FBBCE7C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE3C1DE-4249-EFB4-9110-3C01925D4F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,185 +4491,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7BCD60-73E4-7C48-B4B0-0AFE00646092}">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>1</v>
       </c>
+      <c r="B6">
+        <v>2.5430000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2</v>
       </c>
+      <c r="B7">
+        <v>2.4169999999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>3</v>
       </c>
+      <c r="B8">
+        <v>2.4430000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>4</v>
       </c>
+      <c r="B9">
+        <v>2.4449999999999998</v>
+      </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>5</v>
       </c>
+      <c r="B10">
+        <v>2.5009999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>6</v>
       </c>
+      <c r="B11">
+        <v>2.476</v>
+      </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>7</v>
       </c>
+      <c r="B12">
+        <v>2.48</v>
+      </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>8</v>
       </c>
+      <c r="B13">
+        <v>2.4300000000000002</v>
+      </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>9</v>
       </c>
+      <c r="B14">
+        <v>2.4319999999999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>10</v>
       </c>
+      <c r="B15">
+        <v>2.5329999999999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>1</v>
       </c>
+      <c r="B19">
+        <v>2.153</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>2</v>
       </c>
+      <c r="B20">
+        <v>2.1419999999999999</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>3</v>
       </c>
+      <c r="B21">
+        <v>2.0710000000000002</v>
+      </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>4</v>
       </c>
+      <c r="B22">
+        <v>2.1179999999999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>5</v>
       </c>
+      <c r="B23">
+        <v>2.1480000000000001</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>6</v>
       </c>
+      <c r="B24">
+        <v>2.1120000000000001</v>
+      </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>7</v>
       </c>
+      <c r="B25">
+        <v>2.129</v>
+      </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>8</v>
       </c>
+      <c r="B26">
+        <v>2.1360000000000001</v>
+      </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>9</v>
       </c>
+      <c r="B27">
+        <v>2.0880000000000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>10</v>
       </c>
+      <c r="B28">
+        <v>2.1070000000000002</v>
+      </c>
     </row>
-    <row r="29" spans="1:1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>1</v>
       </c>
+      <c r="B31">
+        <v>0.38800000000000001</v>
+      </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>2</v>
       </c>
+      <c r="B32">
+        <v>0.33100000000000002</v>
+      </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>3</v>
       </c>
+      <c r="B33">
+        <v>0.55300000000000005</v>
+      </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>4</v>
       </c>
+      <c r="B34">
+        <v>0.33300000000000002</v>
+      </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>5</v>
       </c>
+      <c r="B35">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>6</v>
       </c>
+      <c r="B36">
+        <v>0.42699999999999999</v>
+      </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>7</v>
       </c>
+      <c r="B37">
+        <v>0.38600000000000001</v>
+      </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>8</v>
       </c>
+      <c r="B38">
+        <v>0.26300000000000001</v>
+      </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>9</v>
       </c>
+      <c r="B39">
+        <v>0.624</v>
+      </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>10</v>
+      </c>
+      <c r="B40">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="C46">
+        <v>2.153</v>
+      </c>
+      <c r="D46">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="C47">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="D47">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>2.4430000000000001</v>
+      </c>
+      <c r="C48">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="D48">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="C49">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="D49">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="C50">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="D50">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>2.476</v>
+      </c>
+      <c r="C51">
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="D51">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>2.48</v>
+      </c>
+      <c r="C52">
+        <v>2.129</v>
+      </c>
+      <c r="D52">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C53">
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="D53">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="C54">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="D54">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="C55">
+        <v>2.1070000000000002</v>
+      </c>
+      <c r="D55">
+        <v>0.42499999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>